--- a/data/predictions/gender/divorce/leveled/democrat.xlsx
+++ b/data/predictions/gender/divorce/leveled/democrat.xlsx
@@ -826,7 +826,7 @@
         <v>0.2459475169586699</v>
       </c>
       <c r="D34">
-        <v>0.2126147162831606</v>
+        <v>0.2462801336562725</v>
       </c>
       <c r="G34">
         <v>0.5006653820608284</v>
@@ -840,7 +840,7 @@
         <v>0.2462181651429989</v>
       </c>
       <c r="D35">
-        <v>0.2126147162831606</v>
+        <v>0.2602753345749915</v>
       </c>
       <c r="G35">
         <v>0.5419895512753822</v>
@@ -854,7 +854,7 @@
         <v>0.240579027027728</v>
       </c>
       <c r="D36">
-        <v>0.2126147162831606</v>
+        <v>0.2351706662722048</v>
       </c>
       <c r="G36">
         <v>0.5277736986986457</v>
@@ -868,7 +868,7 @@
         <v>0.2333530674119057</v>
       </c>
       <c r="D37">
-        <v>0.2126147162831606</v>
+        <v>0.2272582249665211</v>
       </c>
       <c r="G37">
         <v>0.5492647977656957</v>
@@ -882,7 +882,7 @@
         <v>0.2257010344413189</v>
       </c>
       <c r="D38">
-        <v>0.2126147162831606</v>
+        <v>0.2204223955015204</v>
       </c>
       <c r="G38">
         <v>0.5477997229860215</v>
@@ -896,7 +896,7 @@
         <v>0.2179345976114592</v>
       </c>
       <c r="D39">
-        <v>0.2126147162831606</v>
+        <v>0.2158236018684399</v>
       </c>
       <c r="G39">
         <v>0.5610932846460595</v>
